--- a/assets/data/ManualAppAnalysis.xlsx
+++ b/assets/data/ManualAppAnalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faridah\Desktop\Research\Anonymous\website\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariakn\Research\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB049B-FAF0-4DFC-BC8D-DD4F5E5AC4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C96DE7-564E-4548-B505-8DAC5D442446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="900" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{71FE6187-40FD-4070-A10B-0AF6E064FFD1}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{71FE6187-40FD-4070-A10B-0AF6E064FFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinterest " sheetId="2" r:id="rId1"/>
@@ -30,12 +30,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="593">
   <si>
     <t>Activity</t>
   </si>
@@ -1981,6 +1990,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2007,18 +2028,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2336,80 +2345,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D23CE3-7AD5-41B5-AAA1-A04D294A246E}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="5"/>
-    <col min="5" max="5" width="8.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.88671875" style="5"/>
-    <col min="14" max="14" width="9.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="66.6796875" customWidth="1"/>
+    <col min="2" max="4" width="8.86328125" style="5"/>
+    <col min="5" max="5" width="8.86328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.31640625" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.86328125" style="5"/>
+    <col min="14" max="14" width="9.76953125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2422,9 +2431,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.85" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f xml:space="preserve"> COUNTA(B4:B18)</f>
@@ -2452,34 +2461,34 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N3" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2487,7 +2496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2495,15 +2504,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2511,7 +2520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -2527,7 +2536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -2535,15 +2544,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>178</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>179</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>180</v>
       </c>
@@ -2559,7 +2571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>181</v>
       </c>
@@ -2567,7 +2579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>183</v>
       </c>
@@ -2583,7 +2595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>184</v>
       </c>
@@ -2591,7 +2603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>185</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A19" s="6" t="s">
         <v>186</v>
       </c>
@@ -2617,7 +2629,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A20" s="6" t="s">
         <v>187</v>
       </c>
@@ -2635,7 +2647,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -2653,7 +2665,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -2671,7 +2683,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
@@ -2689,7 +2701,7 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A24" s="6" t="s">
         <v>188</v>
       </c>
@@ -2707,7 +2719,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
         <v>189</v>
       </c>
@@ -2725,7 +2737,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A26" s="6" t="s">
         <v>190</v>
       </c>
@@ -2743,7 +2755,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A27" s="6" t="s">
         <v>191</v>
       </c>
@@ -2761,7 +2773,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A28" s="6" t="s">
         <v>192</v>
       </c>
@@ -2779,7 +2791,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A29" s="6" t="s">
         <v>193</v>
       </c>
@@ -2797,7 +2809,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A30" s="6" t="s">
         <v>194</v>
       </c>
@@ -2815,7 +2827,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A31" s="6" t="s">
         <v>195</v>
       </c>
@@ -2833,7 +2845,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A32" s="6" t="s">
         <v>196</v>
       </c>
@@ -2851,7 +2863,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A33" s="6" t="s">
         <v>197</v>
       </c>
@@ -2871,17 +2883,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2895,70 +2907,70 @@
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="48.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="48.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2971,9 +2983,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f t="shared" ref="B3:O3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
@@ -3032,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -3040,7 +3052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>480</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -3056,7 +3068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>483</v>
       </c>
@@ -3064,7 +3076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>487</v>
       </c>
@@ -3072,234 +3084,234 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="12" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A10" s="12" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A11" s="12" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A12" s="12" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A13" s="12" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A14" s="12" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A15" s="12" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A16" s="12" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A17" s="12" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A18" s="12" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A19" s="12" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A20" s="12" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A21" s="12" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A22" s="12" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A23" s="12" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A24" s="12" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="12" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A26" s="12" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A27" s="12" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A28" s="12" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A29" s="12" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A30" s="12" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A31" s="12" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A32" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A33" s="12" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A34" s="12" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A35" s="12" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A36" s="12" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A37" s="12" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A38" s="12" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A39" s="12" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="40" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A40" s="12" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="41" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A41" s="12" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A42" s="12" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="43" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A43" s="12" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>486</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3314,70 +3326,70 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="66.6796875" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3390,9 +3402,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f t="shared" ref="B3:M3" si="0" xml:space="preserve"> COUNTA(B4:B113)</f>
@@ -3443,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>435</v>
       </c>
@@ -3459,12 +3471,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>440</v>
       </c>
@@ -3472,7 +3484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>447</v>
       </c>
@@ -3480,7 +3492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>448</v>
       </c>
@@ -3488,7 +3500,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -3496,182 +3508,182 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A12" s="12" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A13" s="12" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A14" s="12" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A15" s="12" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A16" s="12" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A17" s="12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A18" s="12" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A19" s="12" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A20" s="12" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A21" s="12" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A22" s="12" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A23" s="12" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A24" s="12" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="12" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A26" s="12" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A27" s="12" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A28" s="12" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A29" s="12" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A30" s="12" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A31" s="12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A32" s="12" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A33" s="12" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A34" s="12" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A35" s="12" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A36" s="12" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>450</v>
       </c>
@@ -3704,74 +3716,74 @@
       <selection pane="topRight" activeCell="B1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="66.6796875" customWidth="1"/>
+    <col min="2" max="5" width="8.86328125" style="5"/>
     <col min="6" max="6" width="10" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.88671875" style="5"/>
-    <col min="14" max="14" width="10.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.6796875" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.86328125" style="5"/>
+    <col min="14" max="14" width="10.86328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3784,9 +3796,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.85" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f xml:space="preserve"> COUNTA(B4:B44)</f>
@@ -3841,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3849,7 +3861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>544</v>
       </c>
@@ -3865,7 +3877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>545</v>
       </c>
@@ -3873,7 +3885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>546</v>
       </c>
@@ -3881,7 +3893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>547</v>
       </c>
@@ -3889,7 +3901,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>548</v>
       </c>
@@ -3897,7 +3909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>549</v>
       </c>
@@ -3908,7 +3920,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>550</v>
       </c>
@@ -3922,7 +3934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>551</v>
       </c>
@@ -3930,7 +3942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>552</v>
       </c>
@@ -3938,7 +3950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>553</v>
       </c>
@@ -3946,7 +3958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>554</v>
       </c>
@@ -3954,7 +3966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>555</v>
       </c>
@@ -3962,7 +3974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>556</v>
       </c>
@@ -3970,7 +3982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>557</v>
       </c>
@@ -3978,7 +3990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>558</v>
       </c>
@@ -3986,7 +3998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>559</v>
       </c>
@@ -3994,7 +4006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>560</v>
       </c>
@@ -4002,7 +4014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>561</v>
       </c>
@@ -4010,7 +4022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>562</v>
       </c>
@@ -4018,7 +4030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>563</v>
       </c>
@@ -4026,7 +4038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>564</v>
       </c>
@@ -4034,7 +4046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>565</v>
       </c>
@@ -4042,7 +4054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>566</v>
       </c>
@@ -4050,7 +4062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>567</v>
       </c>
@@ -4058,7 +4070,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>568</v>
       </c>
@@ -4069,7 +4081,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>569</v>
       </c>
@@ -4077,7 +4089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>570</v>
       </c>
@@ -4085,7 +4097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>571</v>
       </c>
@@ -4093,7 +4105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>572</v>
       </c>
@@ -4101,7 +4113,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>573</v>
       </c>
@@ -4109,7 +4121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>574</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>575</v>
       </c>
@@ -4125,7 +4137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>576</v>
       </c>
@@ -4136,7 +4148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>577</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>578</v>
       </c>
@@ -4152,7 +4164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>579</v>
       </c>
@@ -4160,7 +4172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>580</v>
       </c>
@@ -4168,7 +4180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>581</v>
       </c>
@@ -4176,7 +4188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>582</v>
       </c>
@@ -4184,7 +4196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A45" s="6" t="s">
         <v>583</v>
       </c>
@@ -4202,7 +4214,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A46" s="6" t="s">
         <v>584</v>
       </c>
@@ -4220,7 +4232,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A47" s="6" t="s">
         <v>585</v>
       </c>
@@ -4238,7 +4250,7 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A48" s="6" t="s">
         <v>586</v>
       </c>
@@ -4256,7 +4268,7 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
-    <row r="49" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A49" s="6" t="s">
         <v>587</v>
       </c>
@@ -4274,7 +4286,7 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A50" s="6" t="s">
         <v>588</v>
       </c>
@@ -4292,7 +4304,7 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
-    <row r="51" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A51" s="6" t="s">
         <v>589</v>
       </c>
@@ -4310,7 +4322,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
-    <row r="52" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A52" s="6" t="s">
         <v>590</v>
       </c>
@@ -4328,7 +4340,7 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
-    <row r="53" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A53" s="6" t="s">
         <v>591</v>
       </c>
@@ -4346,7 +4358,7 @@
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
-    <row r="54" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A54" s="6" t="s">
         <v>592</v>
       </c>
@@ -4366,17 +4378,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4392,74 +4404,74 @@
       <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="5" customWidth="1"/>
-    <col min="6" max="14" width="10.5546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="66.6796875" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.6796875" style="5" customWidth="1"/>
+    <col min="6" max="14" width="10.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:15" ht="30.25" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -4472,9 +4484,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.85" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f xml:space="preserve"> COUNTA(B4:B24)</f>
@@ -4529,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -4545,7 +4557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -4553,7 +4565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4561,7 +4573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -4569,7 +4581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>527</v>
       </c>
@@ -4577,7 +4589,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -4585,7 +4597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4593,7 +4605,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -4601,7 +4613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>528</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>529</v>
       </c>
@@ -4623,7 +4635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -4639,7 +4651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>136</v>
       </c>
@@ -4647,7 +4659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -4655,7 +4667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>530</v>
       </c>
@@ -4663,7 +4675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>531</v>
       </c>
@@ -4671,7 +4683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>532</v>
       </c>
@@ -4679,7 +4691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>533</v>
       </c>
@@ -4690,7 +4702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>534</v>
       </c>
@@ -4701,7 +4713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>535</v>
       </c>
@@ -4709,7 +4721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
         <v>536</v>
       </c>
@@ -4727,7 +4739,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A26" s="6" t="s">
         <v>537</v>
       </c>
@@ -4745,7 +4757,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A27" s="6" t="s">
         <v>538</v>
       </c>
@@ -4763,7 +4775,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A28" s="6" t="s">
         <v>539</v>
       </c>
@@ -4781,7 +4793,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A29" s="6" t="s">
         <v>540</v>
       </c>
@@ -4799,7 +4811,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A30" s="6" t="s">
         <v>541</v>
       </c>
@@ -4817,7 +4829,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A31" s="6" t="s">
         <v>542</v>
       </c>
@@ -4835,7 +4847,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A32" s="6" t="s">
         <v>543</v>
       </c>
@@ -4855,17 +4867,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4875,76 +4887,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177B1CD2-0C0F-4FA9-A632-5640D2103F8C}">
   <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="52.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="52.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.6796875" customWidth="1"/>
+    <col min="15" max="15" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -4957,9 +4969,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="10"/>
       <c r="B3" s="10">
         <f t="shared" ref="B3:N3" si="0" xml:space="preserve"> COUNTA(B4:B41)</f>
@@ -5014,7 +5026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="9" t="s">
         <v>270</v>
       </c>
@@ -5035,7 +5047,7 @@
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
     </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A5" s="9" t="s">
         <v>272</v>
       </c>
@@ -5058,7 +5070,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="9" t="s">
         <v>276</v>
       </c>
@@ -5081,7 +5093,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
     </row>
-    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="9" t="s">
         <v>275</v>
       </c>
@@ -5104,7 +5116,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
     </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="9" t="s">
         <v>273</v>
       </c>
@@ -5127,7 +5139,7 @@
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
     </row>
-    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="9" t="s">
         <v>274</v>
       </c>
@@ -5150,7 +5162,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
     </row>
-    <row r="10" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="9" t="s">
         <v>277</v>
       </c>
@@ -5173,7 +5185,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A11" s="9" t="s">
         <v>271</v>
       </c>
@@ -5194,7 +5206,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
     </row>
-    <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A12" s="9" t="s">
         <v>290</v>
       </c>
@@ -5215,7 +5227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A13" s="9" t="s">
         <v>288</v>
       </c>
@@ -5236,7 +5248,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" s="9" t="s">
         <v>285</v>
       </c>
@@ -5257,7 +5269,7 @@
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
     </row>
-    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A15" s="9" t="s">
         <v>286</v>
       </c>
@@ -5278,7 +5290,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" s="9" t="s">
         <v>287</v>
       </c>
@@ -5299,7 +5311,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
     </row>
-    <row r="17" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" s="9" t="s">
         <v>280</v>
       </c>
@@ -5320,7 +5332,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
     </row>
-    <row r="18" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" s="9" t="s">
         <v>284</v>
       </c>
@@ -5341,7 +5353,7 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
     </row>
-    <row r="19" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A19" s="9" t="s">
         <v>283</v>
       </c>
@@ -5362,7 +5374,7 @@
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
     </row>
-    <row r="20" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A20" s="9" t="s">
         <v>281</v>
       </c>
@@ -5383,7 +5395,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A21" s="9" t="s">
         <v>282</v>
       </c>
@@ -5404,7 +5416,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
     </row>
-    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A22" s="9" t="s">
         <v>289</v>
       </c>
@@ -5425,7 +5437,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
     </row>
-    <row r="23" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A23" s="9" t="s">
         <v>291</v>
       </c>
@@ -5446,7 +5458,7 @@
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
     </row>
-    <row r="24" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A24" s="9" t="s">
         <v>278</v>
       </c>
@@ -5467,7 +5479,7 @@
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
     </row>
-    <row r="25" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="9" t="s">
         <v>34</v>
       </c>
@@ -5488,7 +5500,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
     </row>
-    <row r="26" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
@@ -5509,7 +5521,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
     </row>
-    <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A27" s="9" t="s">
         <v>267</v>
       </c>
@@ -5530,7 +5542,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
     </row>
-    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A28" s="9" t="s">
         <v>268</v>
       </c>
@@ -5551,7 +5563,7 @@
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
     </row>
-    <row r="29" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A29" s="9" t="s">
         <v>269</v>
       </c>
@@ -5572,7 +5584,7 @@
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
     </row>
-    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A30" s="9" t="s">
         <v>266</v>
       </c>
@@ -5593,7 +5605,7 @@
       </c>
       <c r="O30" s="13"/>
     </row>
-    <row r="31" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A31" s="9" t="s">
         <v>264</v>
       </c>
@@ -5614,7 +5626,7 @@
       </c>
       <c r="O31" s="13"/>
     </row>
-    <row r="32" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A32" s="9" t="s">
         <v>265</v>
       </c>
@@ -5635,7 +5647,7 @@
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A33" s="9" t="s">
         <v>262</v>
       </c>
@@ -5656,7 +5668,7 @@
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
     </row>
-    <row r="34" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A34" s="9" t="s">
         <v>261</v>
       </c>
@@ -5677,7 +5689,7 @@
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A35" s="9" t="s">
         <v>263</v>
       </c>
@@ -5698,7 +5710,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A36" s="9" t="s">
         <v>259</v>
       </c>
@@ -5719,7 +5731,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A37" s="9" t="s">
         <v>260</v>
       </c>
@@ -5740,7 +5752,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A38" s="9" t="s">
         <v>256</v>
       </c>
@@ -5761,7 +5773,7 @@
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A39" s="9" t="s">
         <v>257</v>
       </c>
@@ -5782,7 +5794,7 @@
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A40" s="9" t="s">
         <v>258</v>
       </c>
@@ -5803,7 +5815,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
     </row>
-    <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A41" s="9" t="s">
         <v>255</v>
       </c>
@@ -5826,12 +5838,12 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A42" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A43" s="12" t="s">
         <v>224</v>
       </c>
@@ -5842,7 +5854,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A44" s="12" t="s">
         <v>225</v>
       </c>
@@ -5853,7 +5865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A45" s="12" t="s">
         <v>226</v>
       </c>
@@ -5864,7 +5876,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A46" s="12" t="s">
         <v>227</v>
       </c>
@@ -5875,7 +5887,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A47" s="12" t="s">
         <v>228</v>
       </c>
@@ -5886,7 +5898,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A48" s="12" t="s">
         <v>229</v>
       </c>
@@ -5897,7 +5909,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A49" s="12" t="s">
         <v>230</v>
       </c>
@@ -5908,7 +5920,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A50" s="12" t="s">
         <v>231</v>
       </c>
@@ -5919,7 +5931,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A51" s="12" t="s">
         <v>232</v>
       </c>
@@ -5930,7 +5942,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A52" s="12" t="s">
         <v>233</v>
       </c>
@@ -5941,7 +5953,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A53" s="12" t="s">
         <v>234</v>
       </c>
@@ -5952,7 +5964,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A54" s="12" t="s">
         <v>235</v>
       </c>
@@ -5963,7 +5975,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A55" s="12" t="s">
         <v>236</v>
       </c>
@@ -5974,7 +5986,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A56" s="12" t="s">
         <v>237</v>
       </c>
@@ -5985,7 +5997,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A57" s="12" t="s">
         <v>238</v>
       </c>
@@ -5996,7 +6008,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A58" s="12" t="s">
         <v>239</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A59" s="12" t="s">
         <v>240</v>
       </c>
@@ -6018,7 +6030,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A60" s="12" t="s">
         <v>241</v>
       </c>
@@ -6029,7 +6041,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A61" s="12" t="s">
         <v>242</v>
       </c>
@@ -6040,7 +6052,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A62" s="12" t="s">
         <v>243</v>
       </c>
@@ -6051,7 +6063,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A63" s="12" t="s">
         <v>244</v>
       </c>
@@ -6059,7 +6071,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A64" s="12" t="s">
         <v>245</v>
       </c>
@@ -6067,7 +6079,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A65" s="12" t="s">
         <v>246</v>
       </c>
@@ -6075,7 +6087,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A66" s="12" t="s">
         <v>247</v>
       </c>
@@ -6083,7 +6095,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A67" s="12" t="s">
         <v>248</v>
       </c>
@@ -6091,7 +6103,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A68" s="12" t="s">
         <v>249</v>
       </c>
@@ -6099,7 +6111,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A69" s="12" t="s">
         <v>250</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A70" s="12" t="s">
         <v>32</v>
       </c>
@@ -6115,7 +6127,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A71" s="12" t="s">
         <v>30</v>
       </c>
@@ -6123,12 +6135,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A72" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A73" s="12" t="s">
         <v>251</v>
       </c>
@@ -6136,7 +6148,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A74" s="12" t="s">
         <v>252</v>
       </c>
@@ -6144,7 +6156,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A75" s="12" t="s">
         <v>33</v>
       </c>
@@ -6152,7 +6164,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A76" s="12" t="s">
         <v>253</v>
       </c>
@@ -6160,7 +6172,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" s="11" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A77" s="11" t="s">
         <v>279</v>
       </c>
@@ -6168,7 +6180,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A78" s="12" t="s">
         <v>254</v>
       </c>
@@ -6181,17 +6193,17 @@
     <sortCondition ref="A4:A41"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6207,78 +6219,78 @@
       <selection pane="topRight" activeCell="N3" sqref="N3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" style="26" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="26"/>
-    <col min="5" max="5" width="11.6640625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="26" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="26" customWidth="1"/>
-    <col min="8" max="11" width="8.88671875" style="26"/>
-    <col min="12" max="12" width="11.88671875" style="26" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="26"/>
-    <col min="14" max="14" width="11.88671875" style="26" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="66.6796875" style="15" customWidth="1"/>
+    <col min="2" max="4" width="8.86328125" style="15"/>
+    <col min="5" max="5" width="11.6796875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" style="15" customWidth="1"/>
+    <col min="8" max="11" width="8.86328125" style="15"/>
+    <col min="12" max="12" width="11.86328125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="8.86328125" style="15"/>
+    <col min="14" max="14" width="11.86328125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="8.86328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:15" customFormat="1" ht="30.25" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -6291,9 +6303,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.85" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f xml:space="preserve"> COUNTA(B4:B15)</f>
@@ -6352,8 +6364,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A4" s="15" t="s">
         <v>524</v>
       </c>
       <c r="B4" s="5"/>
@@ -6374,8 +6386,8 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="5"/>
@@ -6394,8 +6406,8 @@
       </c>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5"/>
@@ -6414,8 +6426,8 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="5"/>
@@ -6434,8 +6446,8 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A8" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="5"/>
@@ -6454,8 +6466,8 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A9" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5"/>
@@ -6471,12 +6483,12 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="O9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="5"/>
@@ -6495,8 +6507,8 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A11" s="15" t="s">
         <v>243</v>
       </c>
       <c r="B11" s="5"/>
@@ -6515,8 +6527,8 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A12" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="5"/>
@@ -6535,8 +6547,8 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A13" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="5"/>
@@ -6555,8 +6567,8 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="5"/>
@@ -6575,8 +6587,8 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A15" s="15" t="s">
         <v>525</v>
       </c>
       <c r="B15" s="5"/>
@@ -6595,8 +6607,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A16" s="16" t="s">
         <v>526</v>
       </c>
       <c r="B16" s="7"/>
@@ -6615,17 +6627,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6639,71 +6651,71 @@
       <selection activeCell="B1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="69.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="69.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" customWidth="1"/>
+    <col min="3" max="3" width="20.2265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -6716,9 +6728,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="10"/>
       <c r="B3" s="10">
         <f xml:space="preserve"> COUNTA(B4:B21)</f>
@@ -6775,7 +6787,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6795,7 +6807,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>211</v>
       </c>
@@ -6815,7 +6827,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>210</v>
       </c>
@@ -6837,7 +6849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -6857,7 +6869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -6877,7 +6889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -6895,7 +6907,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -6915,7 +6927,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -6935,7 +6947,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -6955,7 +6967,7 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -6975,7 +6987,7 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -6995,7 +7007,7 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>221</v>
       </c>
@@ -7015,7 +7027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -7035,7 +7047,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -7053,7 +7065,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -7073,7 +7085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -7091,7 +7103,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -7111,7 +7123,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -7131,89 +7143,89 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A22" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A23" s="8" t="s">
         <v>201</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A24" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A25" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A27" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A28" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A30" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A31" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A32" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A33" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
@@ -7225,17 +7237,17 @@
     <sortCondition ref="A4:A21"/>
   </sortState>
   <mergeCells count="11">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7251,73 +7263,73 @@
       <selection pane="bottomLeft" activeCell="N3" sqref="N3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="7" width="10.33203125" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.88671875" style="5"/>
-    <col min="14" max="14" width="11.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="66.6796875" customWidth="1"/>
+    <col min="2" max="5" width="8.86328125" style="5"/>
+    <col min="6" max="7" width="10.31640625" style="5" customWidth="1"/>
+    <col min="8" max="13" width="8.86328125" style="5"/>
+    <col min="14" max="14" width="11.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -7330,9 +7342,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.85" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f t="shared" ref="B3:O3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
@@ -7391,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -7399,7 +7411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -7407,7 +7419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -7415,7 +7427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -7423,7 +7435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -7431,7 +7443,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -7439,7 +7451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -7447,7 +7459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -7455,7 +7467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -7463,7 +7475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -7471,7 +7483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -7479,7 +7491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -7487,7 +7499,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -7495,7 +7507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -7503,7 +7515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -7511,7 +7523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -7519,7 +7531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -7527,7 +7539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -7535,7 +7547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -7543,7 +7555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -7551,7 +7563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -7559,7 +7571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -7567,7 +7579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -7575,7 +7587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -7583,7 +7595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -7591,7 +7603,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -7599,7 +7611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -7607,7 +7619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -7615,7 +7627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -7623,7 +7635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -7631,7 +7643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -7639,7 +7651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -7647,7 +7659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -7655,7 +7667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -7663,7 +7675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -7671,7 +7683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -7679,7 +7691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -7690,7 +7702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -7698,7 +7710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -7706,7 +7718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -7714,7 +7726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -7722,7 +7734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -7730,7 +7742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -7738,7 +7750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -7746,7 +7758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -7754,7 +7766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -7762,7 +7774,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -7770,7 +7782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -7778,7 +7790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -7786,7 +7798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -7794,7 +7806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -7802,7 +7814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -7810,7 +7822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -7818,7 +7830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -7826,7 +7838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -7834,7 +7846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -7842,7 +7854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -7850,7 +7862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -7858,7 +7870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -7866,7 +7878,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -7874,7 +7886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -7882,7 +7894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -7890,7 +7902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -7898,7 +7910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -7906,7 +7918,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -7914,7 +7926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -7922,7 +7934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -7930,7 +7942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -7938,7 +7950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -7946,7 +7958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -7954,7 +7966,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -7962,7 +7974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -7970,7 +7982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -7978,7 +7990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -7986,7 +7998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -7994,7 +8006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -8002,7 +8014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -8013,7 +8025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -8021,7 +8033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -8029,7 +8041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -8037,7 +8049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -8045,7 +8057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -8053,7 +8065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -8064,7 +8076,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -8072,7 +8084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -8080,7 +8092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -8088,7 +8100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -8096,7 +8108,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -8104,7 +8116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -8112,7 +8124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -8120,7 +8132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -8128,7 +8140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -8136,7 +8148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -8144,7 +8156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -8152,7 +8164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -8160,7 +8172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -8171,7 +8183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -8179,7 +8191,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -8187,7 +8199,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -8195,7 +8207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -8206,7 +8218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -8217,7 +8229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -8225,7 +8237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -8233,7 +8245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -8244,7 +8256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -8252,7 +8264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -8263,7 +8275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -8274,7 +8286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -8282,7 +8294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -8290,7 +8302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -8298,7 +8310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -8306,7 +8318,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -8314,7 +8326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -8322,7 +8334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -8330,7 +8342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -8338,7 +8350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -8346,7 +8358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -8354,7 +8366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -8362,7 +8374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -8370,7 +8382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>138</v>
       </c>
@@ -8378,7 +8390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>139</v>
       </c>
@@ -8386,7 +8398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>140</v>
       </c>
@@ -8394,7 +8406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A126" s="6" t="s">
         <v>141</v>
       </c>
@@ -8412,7 +8424,7 @@
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
     </row>
-    <row r="127" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A127" s="6" t="s">
         <v>142</v>
       </c>
@@ -8430,7 +8442,7 @@
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
     </row>
-    <row r="128" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A128" s="6" t="s">
         <v>143</v>
       </c>
@@ -8448,7 +8460,7 @@
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
     </row>
-    <row r="129" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A129" s="6" t="s">
         <v>144</v>
       </c>
@@ -8466,7 +8478,7 @@
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
     </row>
-    <row r="130" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A130" s="6" t="s">
         <v>145</v>
       </c>
@@ -8484,7 +8496,7 @@
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
     </row>
-    <row r="131" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A131" s="6" t="s">
         <v>146</v>
       </c>
@@ -8502,7 +8514,7 @@
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
     </row>
-    <row r="132" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A132" s="6" t="s">
         <v>147</v>
       </c>
@@ -8520,7 +8532,7 @@
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
     </row>
-    <row r="133" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A133" s="6" t="s">
         <v>148</v>
       </c>
@@ -8538,7 +8550,7 @@
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
     </row>
-    <row r="134" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A134" s="6" t="s">
         <v>149</v>
       </c>
@@ -8556,7 +8568,7 @@
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
     </row>
-    <row r="135" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A135" s="6" t="s">
         <v>150</v>
       </c>
@@ -8574,7 +8586,7 @@
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
     </row>
-    <row r="136" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A136" s="6" t="s">
         <v>151</v>
       </c>
@@ -8592,7 +8604,7 @@
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
     </row>
-    <row r="137" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A137" s="6" t="s">
         <v>152</v>
       </c>
@@ -8610,7 +8622,7 @@
       <c r="M137" s="7"/>
       <c r="N137" s="7"/>
     </row>
-    <row r="138" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A138" s="6" t="s">
         <v>153</v>
       </c>
@@ -8628,7 +8640,7 @@
       <c r="M138" s="7"/>
       <c r="N138" s="7"/>
     </row>
-    <row r="139" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A139" s="6" t="s">
         <v>154</v>
       </c>
@@ -8646,7 +8658,7 @@
       <c r="M139" s="7"/>
       <c r="N139" s="7"/>
     </row>
-    <row r="140" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A140" s="6" t="s">
         <v>155</v>
       </c>
@@ -8664,7 +8676,7 @@
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
     </row>
-    <row r="141" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A141" s="6" t="s">
         <v>156</v>
       </c>
@@ -8682,7 +8694,7 @@
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
     </row>
-    <row r="142" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A142" s="6" t="s">
         <v>157</v>
       </c>
@@ -8700,7 +8712,7 @@
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
     </row>
-    <row r="143" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A143" s="6" t="s">
         <v>158</v>
       </c>
@@ -8718,7 +8730,7 @@
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
     </row>
-    <row r="144" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A144" s="6" t="s">
         <v>159</v>
       </c>
@@ -8736,7 +8748,7 @@
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
     </row>
-    <row r="145" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A145" s="6" t="s">
         <v>160</v>
       </c>
@@ -8754,7 +8766,7 @@
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
     </row>
-    <row r="146" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A146" s="6" t="s">
         <v>161</v>
       </c>
@@ -8772,7 +8784,7 @@
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
     </row>
-    <row r="147" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A147" s="6" t="s">
         <v>162</v>
       </c>
@@ -8790,7 +8802,7 @@
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
     </row>
-    <row r="148" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A148" s="6" t="s">
         <v>163</v>
       </c>
@@ -8808,7 +8820,7 @@
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
     </row>
-    <row r="149" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A149" s="6" t="s">
         <v>164</v>
       </c>
@@ -8826,7 +8838,7 @@
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
     </row>
-    <row r="150" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A150" s="6" t="s">
         <v>165</v>
       </c>
@@ -8844,7 +8856,7 @@
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
     </row>
-    <row r="151" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A151" s="6" t="s">
         <v>166</v>
       </c>
@@ -8862,7 +8874,7 @@
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
     </row>
-    <row r="152" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A152" s="6" t="s">
         <v>167</v>
       </c>
@@ -8880,7 +8892,7 @@
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
     </row>
-    <row r="153" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A153" s="6" t="s">
         <v>168</v>
       </c>
@@ -8898,7 +8910,7 @@
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
     </row>
-    <row r="154" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A154" s="6" t="s">
         <v>169</v>
       </c>
@@ -8916,7 +8928,7 @@
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
     </row>
-    <row r="155" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A155" s="6" t="s">
         <v>170</v>
       </c>
@@ -8934,7 +8946,7 @@
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
     </row>
-    <row r="156" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A156" s="6" t="s">
         <v>171</v>
       </c>
@@ -8952,7 +8964,7 @@
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
     </row>
-    <row r="157" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A157" s="6" t="s">
         <v>172</v>
       </c>
@@ -8970,7 +8982,7 @@
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
     </row>
-    <row r="158" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A158" s="6" t="s">
         <v>173</v>
       </c>
@@ -8988,7 +9000,7 @@
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A159" s="6" t="s">
         <v>174</v>
       </c>
@@ -9006,7 +9018,7 @@
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A160" s="6" t="s">
         <v>175</v>
       </c>
@@ -9026,17 +9038,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9050,70 +9062,70 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="81.33203125" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="81.31640625" customWidth="1"/>
+    <col min="14" max="14" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -9126,9 +9138,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f t="shared" ref="B3:O3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
@@ -9187,7 +9199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>292</v>
       </c>
@@ -9195,7 +9207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -9203,7 +9215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -9211,12 +9223,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>295</v>
       </c>
@@ -9224,7 +9236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -9232,7 +9244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>297</v>
       </c>
@@ -9243,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>298</v>
       </c>
@@ -9251,12 +9263,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>300</v>
       </c>
@@ -9267,7 +9279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -9275,12 +9287,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>303</v>
       </c>
@@ -9288,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>304</v>
       </c>
@@ -9296,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>305</v>
       </c>
@@ -9304,7 +9316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>306</v>
       </c>
@@ -9312,7 +9324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>307</v>
       </c>
@@ -9323,7 +9335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>308</v>
       </c>
@@ -9331,7 +9343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>309</v>
       </c>
@@ -9339,7 +9351,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>310</v>
       </c>
@@ -9347,7 +9359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>312</v>
       </c>
@@ -9355,7 +9367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>313</v>
       </c>
@@ -9366,7 +9378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>314</v>
       </c>
@@ -9377,7 +9389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>315</v>
       </c>
@@ -9388,7 +9400,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>316</v>
       </c>
@@ -9396,7 +9408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -9404,7 +9416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>318</v>
       </c>
@@ -9412,7 +9424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>319</v>
       </c>
@@ -9420,7 +9432,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -9428,7 +9440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>321</v>
       </c>
@@ -9436,7 +9448,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>322</v>
       </c>
@@ -9447,7 +9459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -9455,7 +9467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -9463,7 +9475,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>325</v>
       </c>
@@ -9471,7 +9483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>326</v>
       </c>
@@ -9482,7 +9494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>327</v>
       </c>
@@ -9493,7 +9505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -9501,17 +9513,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -9522,12 +9534,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>333</v>
       </c>
@@ -9535,7 +9547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>334</v>
       </c>
@@ -9546,7 +9558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>335</v>
       </c>
@@ -9554,7 +9566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>336</v>
       </c>
@@ -9562,7 +9574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>337</v>
       </c>
@@ -9570,7 +9582,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>338</v>
       </c>
@@ -9578,7 +9590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>339</v>
       </c>
@@ -9586,7 +9598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>340</v>
       </c>
@@ -9594,7 +9606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>341</v>
       </c>
@@ -9602,7 +9614,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>342</v>
       </c>
@@ -9613,7 +9625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>343</v>
       </c>
@@ -9621,12 +9633,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>345</v>
       </c>
@@ -9634,7 +9646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>346</v>
       </c>
@@ -9642,7 +9654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>347</v>
       </c>
@@ -9650,7 +9662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>348</v>
       </c>
@@ -9661,7 +9673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>349</v>
       </c>
@@ -9669,12 +9681,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>351</v>
       </c>
@@ -9682,7 +9694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>352</v>
       </c>
@@ -9693,12 +9705,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>354</v>
       </c>
@@ -9709,7 +9721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>355</v>
       </c>
@@ -9717,22 +9729,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>359</v>
       </c>
@@ -9740,7 +9752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>360</v>
       </c>
@@ -9748,7 +9760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>361</v>
       </c>
@@ -9759,7 +9771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>362</v>
       </c>
@@ -9767,219 +9779,219 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A76" s="12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A77" s="12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A78" s="12" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A79" s="12" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A80" s="12" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A81" s="12" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="82" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A82" s="12" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="83" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A83" s="12" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A84" s="12" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A85" s="12" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="86" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A86" s="12" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A88" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="89" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A89" s="12" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A90" s="12" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="91" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A91" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A92" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="93" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A93" s="12" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A94" s="12" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="95" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A95" s="12" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="96" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A96" s="12" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="97" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A97" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A98" s="12" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="99" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A99" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A100" s="12" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="101" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A101" s="12" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="102" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A102" s="12" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A103" s="12" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="104" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A104" s="12" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="105" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A105" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="106" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A106" s="12" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="107" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A107" s="12" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="108" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A108" s="12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="109" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A109" s="12" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="110" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A110" s="12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="111" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A111" s="12" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="112" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A112" s="12" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="113" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A113" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="114" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A114" s="12" t="s">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9994,71 +10006,71 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="67.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="67.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" style="9" customWidth="1"/>
     <col min="3" max="3" width="11" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="24" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="17" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
+    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="24"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -10071,9 +10083,9 @@
       <c r="N2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f t="shared" ref="B3:O3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
@@ -10132,7 +10144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4" s="9" t="s">
         <v>401</v>
       </c>
@@ -10140,7 +10152,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5" s="9" t="s">
         <v>402</v>
       </c>
@@ -10148,7 +10160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6" s="9" t="s">
         <v>404</v>
       </c>
@@ -10156,7 +10168,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7" s="9" t="s">
         <v>407</v>
       </c>
@@ -10164,7 +10176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8" s="9" t="s">
         <v>409</v>
       </c>
@@ -10172,7 +10184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9" s="9" t="s">
         <v>410</v>
       </c>
@@ -10180,7 +10192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10" s="9" t="s">
         <v>412</v>
       </c>
@@ -10188,7 +10200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A11" s="9" t="s">
         <v>413</v>
       </c>
@@ -10196,7 +10208,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A12" s="9" t="s">
         <v>414</v>
       </c>
@@ -10204,7 +10216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A13" s="9" t="s">
         <v>415</v>
       </c>
@@ -10212,7 +10224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A14" s="9" t="s">
         <v>416</v>
       </c>
@@ -10220,7 +10232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A15" s="9" t="s">
         <v>417</v>
       </c>
@@ -10228,127 +10240,127 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A16" s="11" t="s">
         <v>418</v>
       </c>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A17" s="11" t="s">
         <v>419</v>
       </c>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A18" s="11" t="s">
         <v>420</v>
       </c>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A19" s="11" t="s">
         <v>421</v>
       </c>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A20" s="11" t="s">
         <v>422</v>
       </c>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A21" s="11" t="s">
         <v>423</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A22" s="11" t="s">
         <v>424</v>
       </c>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A23" s="11" t="s">
         <v>425</v>
       </c>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A24" s="11" t="s">
         <v>426</v>
       </c>
       <c r="B24" s="11"/>
     </row>
-    <row r="25" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="11" t="s">
         <v>427</v>
       </c>
       <c r="B25" s="11"/>
     </row>
-    <row r="26" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A26" s="11" t="s">
         <v>428</v>
       </c>
       <c r="B26" s="11"/>
     </row>
-    <row r="27" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A27" s="11" t="s">
         <v>429</v>
       </c>
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A28" s="11" t="s">
         <v>430</v>
       </c>
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A29" s="11" t="s">
         <v>431</v>
       </c>
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A30" s="11" t="s">
         <v>432</v>
       </c>
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A31" s="11" t="s">
         <v>433</v>
       </c>
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A32" s="9" t="s">
         <v>403</v>
       </c>
       <c r="C32"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A33" s="9" t="s">
         <v>405</v>
       </c>
       <c r="C33"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A34" s="9" t="s">
         <v>406</v>
       </c>
       <c r="C34"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A35" s="9" t="s">
         <v>408</v>
       </c>
       <c r="C35"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A36" s="9" t="s">
         <v>411</v>
       </c>
@@ -10356,17 +10368,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/data/ManualAppAnalysis.xlsx
+++ b/assets/data/ManualAppAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariakn\Research\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C96DE7-564E-4548-B505-8DAC5D442446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CDC523-C388-4002-9D41-88DA12FFA1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{71FE6187-40FD-4070-A10B-0AF6E064FFD1}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" firstSheet="4" activeTab="5" xr2:uid="{71FE6187-40FD-4070-A10B-0AF6E064FFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinterest " sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="595">
   <si>
     <t>Activity</t>
   </si>
@@ -1823,6 +1823,12 @@
   </si>
   <si>
     <t>com.sec.android.easyMover.ui.SendOrReceiveActivity</t>
+  </si>
+  <si>
+    <t>Transitive</t>
+  </si>
+  <si>
+    <t>ea</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1858,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1874,6 +1880,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,7 +1964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1996,28 +2008,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2029,11 +2032,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2343,11 +2437,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D23CE3-7AD5-41B5-AAA1-A04D294A246E}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2357,12 +2451,14 @@
     <col min="5" max="5" width="8.86328125" style="5" customWidth="1"/>
     <col min="6" max="6" width="9.86328125" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.31640625" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.86328125" style="5"/>
-    <col min="14" max="14" width="9.76953125" style="5" customWidth="1"/>
+    <col min="8" max="12" width="8.86328125" style="5"/>
+    <col min="13" max="13" width="9.54296875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.86328125" style="5"/>
+    <col min="15" max="15" width="9.76953125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -2372,179 +2468,201 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.85" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f xml:space="preserve"> COUNTA(B4:B18)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:P3" si="0" xml:space="preserve"> COUNTA(C4:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:N3" si="0" xml:space="preserve"> COUNTA(C4:C18)</f>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="P3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M5"/>
+      <c r="P5" s="28"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M6"/>
+      <c r="N6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M7"/>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M8"/>
+      <c r="N8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>176</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M9"/>
+      <c r="N9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -2554,64 +2672,72 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>179</v>
       </c>
-      <c r="N12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M12"/>
+      <c r="O12" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>180</v>
       </c>
-      <c r="N13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M13"/>
+      <c r="O13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>181</v>
       </c>
-      <c r="N14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M14"/>
+      <c r="O14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>182</v>
       </c>
-      <c r="N15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M15"/>
+      <c r="O15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>183</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>184</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>185</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A19" s="6" t="s">
         <v>186</v>
       </c>
@@ -2628,8 +2754,9 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A20" s="6" t="s">
         <v>187</v>
       </c>
@@ -2646,8 +2773,9 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
@@ -2664,8 +2792,9 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
@@ -2682,8 +2811,9 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-    </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A23" s="6" t="s">
         <v>31</v>
       </c>
@@ -2700,8 +2830,9 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A24" s="6" t="s">
         <v>188</v>
       </c>
@@ -2718,8 +2849,9 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
         <v>189</v>
       </c>
@@ -2736,8 +2868,9 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A26" s="6" t="s">
         <v>190</v>
       </c>
@@ -2754,8 +2887,9 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A27" s="6" t="s">
         <v>191</v>
       </c>
@@ -2772,8 +2906,9 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A28" s="6" t="s">
         <v>192</v>
       </c>
@@ -2790,8 +2925,9 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A29" s="6" t="s">
         <v>193</v>
       </c>
@@ -2808,8 +2944,9 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A30" s="6" t="s">
         <v>194</v>
       </c>
@@ -2826,8 +2963,9 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A31" s="6" t="s">
         <v>195</v>
       </c>
@@ -2844,8 +2982,9 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A32" s="6" t="s">
         <v>196</v>
       </c>
@@ -2862,8 +3001,9 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A33" s="6" t="s">
         <v>197</v>
       </c>
@@ -2880,31 +3020,43 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
+  <conditionalFormatting sqref="M4:M6 M8:M18">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula xml:space="preserve"> OR($D4="x",$P4="x", $Q4="x",$R4="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4 P6 P8:P18">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula xml:space="preserve"> OR($D4="x",$P4="x", $Q4="x",$R4="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F367D7CD-43F2-4F13-ADA1-131E17C49AB1}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2913,8 +3065,8 @@
     <col min="2" max="2" width="18.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -2924,71 +3076,75 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:O3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
+        <f t="shared" ref="B3:P3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
         <v>0</v>
       </c>
       <c r="C3" s="3">
@@ -3021,46 +3177,53 @@
       </c>
       <c r="J3" s="3">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="N3" s="3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>480</v>
       </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>482</v>
       </c>
@@ -3068,58 +3231,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>483</v>
       </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>487</v>
       </c>
-      <c r="O8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="12" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A10" s="12" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A11" s="12" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A12" s="12" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A13" s="12" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A14" s="12" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A15" s="12" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A16" s="12" t="s">
         <v>495</v>
       </c>
@@ -3300,18 +3463,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3320,10 +3484,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06243214-C050-4CC6-A86F-AC8EB20C9167}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3332,8 +3496,8 @@
     <col min="2" max="2" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -3343,140 +3507,162 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:M3" si="0" xml:space="preserve"> COUNTA(B4:B113)</f>
+        <f t="shared" ref="B3:P3" si="0" xml:space="preserve"> COUNTA(B4:B113)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="N3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="3">
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>292</v>
       </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>435</v>
       </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>440</v>
       </c>
@@ -3484,15 +3670,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>447</v>
       </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>448</v>
       </c>
@@ -3500,7 +3689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>449</v>
       </c>
@@ -3508,27 +3697,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A12" s="12" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A13" s="12" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A14" s="12" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A15" s="12" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A16" s="12" t="s">
         <v>455</v>
       </c>
@@ -3689,8 +3878,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="O1:O2"/>
+  <mergeCells count="12">
+    <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
@@ -3700,7 +3889,8 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3708,12 +3898,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56533014-8205-4B35-8040-DA405B8189AF}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="N22" sqref="N22"/>
-      <selection pane="topRight" activeCell="B1" sqref="A1:XFD2"/>
+      <selection pane="topRight" activeCell="O3" sqref="O3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3722,12 +3912,14 @@
     <col min="2" max="5" width="8.86328125" style="5"/>
     <col min="6" max="6" width="10" style="5" customWidth="1"/>
     <col min="7" max="7" width="10.6796875" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.86328125" style="5"/>
-    <col min="14" max="14" width="10.86328125" style="5" customWidth="1"/>
+    <col min="8" max="12" width="8.86328125" style="5"/>
+    <col min="13" max="13" width="8.7265625" style="5"/>
+    <col min="14" max="14" width="8.86328125" style="5"/>
+    <col min="15" max="15" width="10.86328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -3737,76 +3929,80 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.85" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f xml:space="preserve"> COUNTA(B4:B44)</f>
         <v>4</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:N3" si="0" xml:space="preserve"> COUNTA(C4:C44)</f>
-        <v>4</v>
+        <f t="shared" ref="C3:P3" si="0" xml:space="preserve"> COUNTA(C4:C44)</f>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
@@ -3818,7 +4014,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
@@ -3830,30 +4026,38 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="3">
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3861,7 +4065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3869,15 +4073,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>544</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>545</v>
       </c>
@@ -3885,7 +4089,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>546</v>
       </c>
@@ -3893,15 +4097,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>547</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>548</v>
       </c>
@@ -3909,32 +4116,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>549</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="J12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>551</v>
       </c>
@@ -3942,63 +4140,66 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>552</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>553</v>
       </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>554</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="M16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>555</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="M17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>556</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="M18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>557</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="M19" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>558</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="M20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>559</v>
       </c>
@@ -4006,47 +4207,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>560</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="M22" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>561</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="M23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>562</v>
       </c>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F24" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>563</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="M25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>564</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="M26" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>565</v>
       </c>
@@ -4054,7 +4261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>566</v>
       </c>
@@ -4062,15 +4269,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>567</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="I29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>568</v>
       </c>
@@ -4081,15 +4288,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>569</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="M31" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>570</v>
       </c>
@@ -4097,66 +4304,69 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>571</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M33" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>572</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M34" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>573</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M35" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>574</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M36" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>575</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M37" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>576</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F38" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>577</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M39" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>578</v>
       </c>
@@ -4164,7 +4374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>579</v>
       </c>
@@ -4172,31 +4382,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>580</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M42" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>581</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M43" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>582</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="M44" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A45" s="6" t="s">
         <v>583</v>
       </c>
@@ -4213,8 +4423,9 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A46" s="6" t="s">
         <v>584</v>
       </c>
@@ -4231,8 +4442,9 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A47" s="6" t="s">
         <v>585</v>
       </c>
@@ -4249,8 +4461,9 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A48" s="6" t="s">
         <v>586</v>
       </c>
@@ -4267,8 +4480,9 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A49" s="6" t="s">
         <v>587</v>
       </c>
@@ -4285,8 +4499,9 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A50" s="6" t="s">
         <v>588</v>
       </c>
@@ -4303,8 +4518,9 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A51" s="6" t="s">
         <v>589</v>
       </c>
@@ -4321,8 +4537,9 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A52" s="6" t="s">
         <v>590</v>
       </c>
@@ -4339,8 +4556,9 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A53" s="6" t="s">
         <v>591</v>
       </c>
@@ -4357,8 +4575,9 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A54" s="6" t="s">
         <v>592</v>
       </c>
@@ -4375,20 +4594,22 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4396,10 +4617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE37FBD-4583-486D-BAAD-4B0ED9486AB8}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="N22" sqref="N22"/>
       <selection pane="topRight" activeCell="M10" sqref="M10"/>
     </sheetView>
@@ -4411,11 +4632,11 @@
     <col min="3" max="3" width="18.54296875" style="5" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.6796875" style="5" customWidth="1"/>
-    <col min="6" max="14" width="10.54296875" style="5" customWidth="1"/>
+    <col min="6" max="15" width="10.54296875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -4425,123 +4646,135 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30.25" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" ht="30.25" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.85" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f xml:space="preserve"> COUNTA(B4:B24)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:P3" si="0" xml:space="preserve"> COUNTA(C4:C24)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <f t="shared" ref="C3:N3" si="0" xml:space="preserve"> COUNTA(C4:C24)</f>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E3" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="P3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -4549,31 +4782,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -4581,7 +4814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>527</v>
       </c>
@@ -4589,15 +4822,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4605,7 +4841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -4613,7 +4849,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>528</v>
       </c>
@@ -4624,7 +4860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>529</v>
       </c>
@@ -4635,7 +4871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -4643,7 +4879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -4651,15 +4887,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>136</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>137</v>
       </c>
@@ -4667,7 +4906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>530</v>
       </c>
@@ -4675,15 +4914,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>531</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>532</v>
       </c>
@@ -4691,7 +4930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>533</v>
       </c>
@@ -4702,26 +4941,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>534</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>535</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O24" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
         <v>536</v>
       </c>
@@ -4738,8 +4974,9 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A26" s="6" t="s">
         <v>537</v>
       </c>
@@ -4756,8 +4993,9 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A27" s="6" t="s">
         <v>538</v>
       </c>
@@ -4774,8 +5012,9 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A28" s="6" t="s">
         <v>539</v>
       </c>
@@ -4792,8 +5031,9 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A29" s="6" t="s">
         <v>540</v>
       </c>
@@ -4810,8 +5050,9 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A30" s="6" t="s">
         <v>541</v>
       </c>
@@ -4828,8 +5069,9 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A31" s="6" t="s">
         <v>542</v>
       </c>
@@ -4846,8 +5088,9 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A32" s="6" t="s">
         <v>543</v>
       </c>
@@ -4864,20 +5107,22 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4885,10 +5130,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177B1CD2-0C0F-4FA9-A632-5640D2103F8C}">
-  <dimension ref="A1:O78"/>
+  <dimension ref="A1:P78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4896,11 +5141,11 @@
     <col min="1" max="1" width="52.54296875" customWidth="1"/>
     <col min="5" max="5" width="15.54296875" customWidth="1"/>
     <col min="7" max="7" width="12.6796875" customWidth="1"/>
-    <col min="15" max="15" width="10.86328125" customWidth="1"/>
+    <col min="16" max="16" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -4910,71 +5155,75 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="10"/>
       <c r="B3" s="10">
-        <f t="shared" ref="B3:N3" si="0" xml:space="preserve"> COUNTA(B4:B41)</f>
+        <f t="shared" ref="B3:P3" si="0" xml:space="preserve"> COUNTA(B4:B41)</f>
         <v>0</v>
       </c>
       <c r="C3" s="10">
@@ -4983,7 +5232,7 @@
       </c>
       <c r="D3" s="10">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
@@ -5015,18 +5264,26 @@
       </c>
       <c r="L3" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M3" s="10">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P3" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A4" s="9" t="s">
         <v>270</v>
       </c>
@@ -5046,8 +5303,9 @@
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P4" s="13"/>
+    </row>
+    <row r="5" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A5" s="9" t="s">
         <v>272</v>
       </c>
@@ -5063,22 +5321,19 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A6" s="9" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -5086,14 +5341,15 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A7" s="9" t="s">
         <v>275</v>
       </c>
@@ -5109,22 +5365,19 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="9" t="s">
         <v>273</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -5132,14 +5385,15 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="9" t="s">
         <v>274</v>
       </c>
@@ -5155,14 +5409,15 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A10" s="9" t="s">
         <v>277</v>
       </c>
@@ -5178,14 +5433,15 @@
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A11" s="9" t="s">
         <v>271</v>
       </c>
@@ -5205,8 +5461,9 @@
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A12" s="9" t="s">
         <v>290</v>
       </c>
@@ -5223,11 +5480,12 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O12" s="13"/>
+      <c r="P12" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A13" s="9" t="s">
         <v>288</v>
       </c>
@@ -5244,11 +5502,12 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
-      <c r="O13" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="O13" s="13"/>
+      <c r="P13" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A14" s="9" t="s">
         <v>285</v>
       </c>
@@ -5268,8 +5527,9 @@
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A15" s="9" t="s">
         <v>286</v>
       </c>
@@ -5289,8 +5549,9 @@
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A16" s="9" t="s">
         <v>287</v>
       </c>
@@ -5310,8 +5571,9 @@
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A17" s="9" t="s">
         <v>280</v>
       </c>
@@ -5331,8 +5593,9 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A18" s="9" t="s">
         <v>284</v>
       </c>
@@ -5352,8 +5615,9 @@
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A19" s="9" t="s">
         <v>283</v>
       </c>
@@ -5373,8 +5637,9 @@
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A20" s="9" t="s">
         <v>281</v>
       </c>
@@ -5394,8 +5659,11 @@
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P20" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A21" s="9" t="s">
         <v>282</v>
       </c>
@@ -5415,8 +5683,9 @@
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A22" s="9" t="s">
         <v>289</v>
       </c>
@@ -5433,11 +5702,14 @@
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
+      <c r="M22" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
-    </row>
-    <row r="23" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A23" s="9" t="s">
         <v>291</v>
       </c>
@@ -5457,8 +5729,11 @@
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P23" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A24" s="9" t="s">
         <v>278</v>
       </c>
@@ -5478,8 +5753,9 @@
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A25" s="9" t="s">
         <v>34</v>
       </c>
@@ -5499,8 +5775,9 @@
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A26" s="9" t="s">
         <v>36</v>
       </c>
@@ -5515,13 +5792,14 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
-      <c r="M26" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A27" s="9" t="s">
         <v>267</v>
       </c>
@@ -5541,8 +5819,9 @@
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A28" s="9" t="s">
         <v>268</v>
       </c>
@@ -5562,8 +5841,9 @@
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A29" s="9" t="s">
         <v>269</v>
       </c>
@@ -5583,8 +5863,9 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A30" s="9" t="s">
         <v>266</v>
       </c>
@@ -5600,12 +5881,13 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
-      <c r="N30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="N30" s="13"/>
+      <c r="O30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A31" s="9" t="s">
         <v>264</v>
       </c>
@@ -5621,12 +5903,13 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="N31" s="13"/>
+      <c r="O31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A32" s="9" t="s">
         <v>265</v>
       </c>
@@ -5646,8 +5929,9 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
-    </row>
-    <row r="33" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A33" s="9" t="s">
         <v>262</v>
       </c>
@@ -5667,8 +5951,9 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A34" s="9" t="s">
         <v>261</v>
       </c>
@@ -5688,8 +5973,9 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A35" s="9" t="s">
         <v>263</v>
       </c>
@@ -5709,8 +5995,11 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P35" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A36" s="9" t="s">
         <v>259</v>
       </c>
@@ -5730,8 +6019,11 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P36" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A37" s="9" t="s">
         <v>260</v>
       </c>
@@ -5751,8 +6043,11 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
-    </row>
-    <row r="38" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P37" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A38" s="9" t="s">
         <v>256</v>
       </c>
@@ -5772,8 +6067,9 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A39" s="9" t="s">
         <v>257</v>
       </c>
@@ -5793,8 +6089,9 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A40" s="9" t="s">
         <v>258</v>
       </c>
@@ -5814,8 +6111,9 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
-    </row>
-    <row r="41" spans="1:15" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="1:16" s="9" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A41" s="9" t="s">
         <v>255</v>
       </c>
@@ -5837,13 +6135,14 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
-    </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A42" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A43" s="12" t="s">
         <v>224</v>
       </c>
@@ -5854,7 +6153,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A44" s="12" t="s">
         <v>225</v>
       </c>
@@ -5865,7 +6164,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A45" s="12" t="s">
         <v>226</v>
       </c>
@@ -5876,7 +6175,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A46" s="12" t="s">
         <v>227</v>
       </c>
@@ -5887,7 +6186,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A47" s="12" t="s">
         <v>228</v>
       </c>
@@ -5898,7 +6197,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A48" s="12" t="s">
         <v>229</v>
       </c>
@@ -6192,18 +6491,19 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A41">
     <sortCondition ref="A4:A41"/>
   </sortState>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6211,12 +6511,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3B6E4A-46C6-4363-BB0B-95A53E54634B}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A27" sqref="A27"/>
-      <selection pane="topRight" activeCell="N3" sqref="N3:O3"/>
+      <selection pane="topRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6227,14 +6527,14 @@
     <col min="6" max="6" width="10.86328125" style="15" customWidth="1"/>
     <col min="7" max="7" width="14.86328125" style="15" customWidth="1"/>
     <col min="8" max="11" width="8.86328125" style="15"/>
-    <col min="12" max="12" width="11.86328125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="8.86328125" style="15"/>
-    <col min="14" max="14" width="11.86328125" style="15" customWidth="1"/>
-    <col min="15" max="16384" width="8.86328125" style="15"/>
+    <col min="12" max="13" width="11.86328125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="8.86328125" style="15"/>
+    <col min="15" max="15" width="11.86328125" style="15" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -6244,68 +6544,72 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" customFormat="1" ht="30.25" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" customFormat="1" ht="30.25" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.85" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
         <f xml:space="preserve"> COUNTA(B4:B15)</f>
@@ -6320,7 +6624,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:O3" si="0" xml:space="preserve"> COUNTA(E4:E15)</f>
+        <f t="shared" ref="E3:P3" si="0" xml:space="preserve"> COUNTA(E4:E15)</f>
         <v>0</v>
       </c>
       <c r="F3" s="3">
@@ -6337,34 +6641,38 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J3" s="3">
+      <c r="M3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O3" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" s="15" t="s">
         <v>524</v>
       </c>
@@ -6377,16 +6685,15 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
@@ -6401,12 +6708,14 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O5" s="5"/>
+      <c r="P5" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
@@ -6425,8 +6734,9 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6441,12 +6751,13 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8" s="15" t="s">
         <v>27</v>
       </c>
@@ -6465,8 +6776,9 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A9" s="15" t="s">
         <v>28</v>
       </c>
@@ -6483,11 +6795,12 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O9" s="5"/>
+      <c r="P9" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
@@ -6506,8 +6819,9 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A11" s="15" t="s">
         <v>243</v>
       </c>
@@ -6526,8 +6840,9 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A12" s="15" t="s">
         <v>34</v>
       </c>
@@ -6546,8 +6861,9 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A13" s="15" t="s">
         <v>36</v>
       </c>
@@ -6566,8 +6882,9 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
@@ -6583,11 +6900,14 @@
         <v>19</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A15" s="15" t="s">
         <v>525</v>
       </c>
@@ -6603,11 +6923,12 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A16" s="16" t="s">
         <v>526</v>
       </c>
@@ -6624,20 +6945,22 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6645,10 +6968,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF5E6A2-FCC3-4732-A73B-2A24D2AAE5AD}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6658,8 +6981,8 @@
     <col min="3" max="3" width="20.2265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -6669,75 +6992,79 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:17" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="10"/>
       <c r="B3" s="10">
         <f xml:space="preserve"> COUNTA(B4:B21)</f>
         <v>0</v>
       </c>
       <c r="C3" s="10">
-        <f t="shared" ref="C3:N3" si="0" xml:space="preserve"> COUNTA(C4:C21)</f>
+        <f t="shared" ref="C3:P3" si="0" xml:space="preserve"> COUNTA(C4:C21)</f>
         <v>1</v>
       </c>
       <c r="D3" s="10">
@@ -6762,32 +7089,39 @@
       </c>
       <c r="I3" s="10">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="10">
+      <c r="L3" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K3" s="10">
+      <c r="M3" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
+      <c r="O3" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="P3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N3" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6806,8 +7140,9 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>211</v>
       </c>
@@ -6826,16 +7161,15 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>210</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -6845,11 +7179,12 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -6865,11 +7200,12 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>218</v>
       </c>
@@ -6885,11 +7221,12 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>212</v>
       </c>
@@ -6906,8 +7243,11 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -6923,11 +7263,12 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>214</v>
       </c>
@@ -6946,8 +7287,9 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -6960,14 +7302,17 @@
         <v>19</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>209</v>
       </c>
@@ -6986,8 +7331,9 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -7006,8 +7352,9 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>221</v>
       </c>
@@ -7023,11 +7370,12 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -7046,14 +7394,17 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -7064,8 +7415,9 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>223</v>
       </c>
@@ -7081,11 +7433,12 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -7100,10 +7453,13 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>219</v>
       </c>
@@ -7122,8 +7478,9 @@
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -7139,81 +7496,82 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A22" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A23" s="8" t="s">
         <v>201</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A24" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A25" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A27" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A28" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A30" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A31" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A32" s="8" t="s">
         <v>208</v>
       </c>
@@ -7236,18 +7594,19 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A21">
     <sortCondition ref="A4:A21"/>
   </sortState>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7256,11 +7615,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4173DED4-DAD2-4FB9-9C1B-023AF24FDC08}">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:O3"/>
+      <selection pane="bottomLeft" activeCell="N121" sqref="N121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7268,12 +7627,14 @@
     <col min="1" max="1" width="66.6796875" customWidth="1"/>
     <col min="2" max="5" width="8.86328125" style="5"/>
     <col min="6" max="7" width="10.31640625" style="5" customWidth="1"/>
-    <col min="8" max="13" width="8.86328125" style="5"/>
-    <col min="14" max="14" width="11.453125" style="5" customWidth="1"/>
+    <col min="8" max="12" width="8.86328125" style="5"/>
+    <col min="13" max="13" width="8.7265625" style="5"/>
+    <col min="14" max="14" width="8.86328125" style="5"/>
+    <col min="15" max="15" width="11.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -7283,71 +7644,75 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="28.85" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:O3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
+        <f t="shared" ref="B3:P3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
         <v>0</v>
       </c>
       <c r="C3" s="3">
@@ -7356,11 +7721,11 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
@@ -7376,7 +7741,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="0"/>
@@ -7384,7 +7749,7 @@
       </c>
       <c r="K3" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" si="0"/>
@@ -7392,18 +7757,22 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O3" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -7411,15 +7780,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -7427,15 +7796,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -7443,7 +7812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -7451,23 +7820,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -7475,15 +7844,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -7491,7 +7860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -7499,31 +7868,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N17" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N18" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -7531,23 +7900,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N21" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -7555,15 +7924,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="N23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -7571,23 +7940,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O26" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -7595,23 +7964,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M28" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="N29" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -7619,7 +7988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -7627,15 +7996,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>47</v>
       </c>
-      <c r="N32" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O32" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -7643,15 +8012,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>49</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M34" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -7659,15 +8031,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>51</v>
       </c>
-      <c r="N36" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O36" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -7675,7 +8047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -7683,7 +8055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -7691,7 +8063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -7702,7 +8074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -7710,7 +8082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -7718,7 +8090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -7726,7 +8098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -7734,7 +8106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -7742,31 +8114,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>61</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M46" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>62</v>
       </c>
-      <c r="I47" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M47" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>63</v>
       </c>
-      <c r="I48" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M48" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -7774,7 +8146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -7782,7 +8154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -7790,7 +8162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -7798,7 +8170,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -7806,15 +8178,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>69</v>
       </c>
-      <c r="N54" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O54" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -7822,7 +8194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -7830,7 +8202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -7838,15 +8210,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>73</v>
       </c>
       <c r="K58" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O58" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -7854,7 +8229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -7862,39 +8237,45 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>76</v>
       </c>
+      <c r="D61" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="F61" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>77</v>
       </c>
-      <c r="N62" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O62" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>78</v>
       </c>
-      <c r="N63" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O63" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>79</v>
       </c>
-      <c r="N64" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -7902,7 +8283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -7910,15 +8291,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>82</v>
       </c>
-      <c r="N67" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O67" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -7926,7 +8307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -7934,15 +8315,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>85</v>
       </c>
-      <c r="N70" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O70" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -7950,7 +8331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -7958,7 +8339,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -7966,7 +8347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -7974,7 +8355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -7982,7 +8363,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -7990,15 +8371,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>92</v>
       </c>
-      <c r="K77" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M77" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -8006,7 +8387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -8014,7 +8395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -8025,7 +8406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -8033,7 +8414,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -8041,7 +8422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -8049,7 +8430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -8057,7 +8438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -8065,7 +8446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -8076,7 +8457,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -8084,55 +8465,73 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>103</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="M88" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>104</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="P89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>105</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="M90" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>106</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="M91" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>107</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="M92" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>108</v>
       </c>
+      <c r="E93" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G93" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -8140,39 +8539,48 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>110</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="M95" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>111</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M96" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>112</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M97" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>113</v>
       </c>
-      <c r="G98" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="L98" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -8183,15 +8591,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>115</v>
       </c>
+      <c r="G100" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="K100" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -8199,7 +8610,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -8207,7 +8618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -8217,19 +8628,22 @@
       <c r="K103" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M103" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>119</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K104" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M104" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -8237,7 +8651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -8245,7 +8659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -8255,8 +8669,11 @@
       <c r="G107" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M107" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -8264,7 +8681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -8274,8 +8691,11 @@
       <c r="G109" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M109" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -8286,7 +8706,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -8294,7 +8714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -8302,55 +8722,70 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>128</v>
       </c>
-      <c r="L113" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M113" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>129</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M114" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>130</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M115" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>131</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M116" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>132</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M117" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>133</v>
       </c>
+      <c r="D118" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="E118" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -8358,7 +8793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -8366,7 +8801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -8374,7 +8809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -8382,7 +8817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>138</v>
       </c>
@@ -8390,7 +8825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>139</v>
       </c>
@@ -8398,15 +8833,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>140</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="N125" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A126" s="6" t="s">
         <v>141</v>
       </c>
@@ -8423,8 +8858,9 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
-    </row>
-    <row r="127" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O126" s="7"/>
+    </row>
+    <row r="127" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A127" s="6" t="s">
         <v>142</v>
       </c>
@@ -8441,8 +8877,9 @@
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
-    </row>
-    <row r="128" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O127" s="7"/>
+    </row>
+    <row r="128" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A128" s="6" t="s">
         <v>143</v>
       </c>
@@ -8459,8 +8896,9 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
-    </row>
-    <row r="129" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O128" s="7"/>
+    </row>
+    <row r="129" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A129" s="6" t="s">
         <v>144</v>
       </c>
@@ -8477,8 +8915,9 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
-    </row>
-    <row r="130" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O129" s="7"/>
+    </row>
+    <row r="130" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A130" s="6" t="s">
         <v>145</v>
       </c>
@@ -8495,8 +8934,9 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
-    </row>
-    <row r="131" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O130" s="7"/>
+    </row>
+    <row r="131" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A131" s="6" t="s">
         <v>146</v>
       </c>
@@ -8513,8 +8953,9 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
-    </row>
-    <row r="132" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O131" s="7"/>
+    </row>
+    <row r="132" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A132" s="6" t="s">
         <v>147</v>
       </c>
@@ -8531,8 +8972,9 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
-    </row>
-    <row r="133" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O132" s="7"/>
+    </row>
+    <row r="133" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A133" s="6" t="s">
         <v>148</v>
       </c>
@@ -8549,8 +8991,9 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
-    </row>
-    <row r="134" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O133" s="7"/>
+    </row>
+    <row r="134" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A134" s="6" t="s">
         <v>149</v>
       </c>
@@ -8567,8 +9010,9 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
       <c r="N134" s="7"/>
-    </row>
-    <row r="135" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O134" s="7"/>
+    </row>
+    <row r="135" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A135" s="6" t="s">
         <v>150</v>
       </c>
@@ -8585,8 +9029,9 @@
       <c r="L135" s="7"/>
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
-    </row>
-    <row r="136" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O135" s="7"/>
+    </row>
+    <row r="136" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A136" s="6" t="s">
         <v>151</v>
       </c>
@@ -8603,8 +9048,9 @@
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
       <c r="N136" s="7"/>
-    </row>
-    <row r="137" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O136" s="7"/>
+    </row>
+    <row r="137" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A137" s="6" t="s">
         <v>152</v>
       </c>
@@ -8621,8 +9067,9 @@
       <c r="L137" s="7"/>
       <c r="M137" s="7"/>
       <c r="N137" s="7"/>
-    </row>
-    <row r="138" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O137" s="7"/>
+    </row>
+    <row r="138" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A138" s="6" t="s">
         <v>153</v>
       </c>
@@ -8639,8 +9086,9 @@
       <c r="L138" s="7"/>
       <c r="M138" s="7"/>
       <c r="N138" s="7"/>
-    </row>
-    <row r="139" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O138" s="7"/>
+    </row>
+    <row r="139" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A139" s="6" t="s">
         <v>154</v>
       </c>
@@ -8657,8 +9105,9 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
       <c r="N139" s="7"/>
-    </row>
-    <row r="140" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O139" s="7"/>
+    </row>
+    <row r="140" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A140" s="6" t="s">
         <v>155</v>
       </c>
@@ -8675,8 +9124,9 @@
       <c r="L140" s="7"/>
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
-    </row>
-    <row r="141" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O140" s="7"/>
+    </row>
+    <row r="141" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A141" s="6" t="s">
         <v>156</v>
       </c>
@@ -8693,8 +9143,9 @@
       <c r="L141" s="7"/>
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
-    </row>
-    <row r="142" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O141" s="7"/>
+    </row>
+    <row r="142" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A142" s="6" t="s">
         <v>157</v>
       </c>
@@ -8711,8 +9162,9 @@
       <c r="L142" s="7"/>
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
-    </row>
-    <row r="143" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O142" s="7"/>
+    </row>
+    <row r="143" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A143" s="6" t="s">
         <v>158</v>
       </c>
@@ -8729,8 +9181,9 @@
       <c r="L143" s="7"/>
       <c r="M143" s="7"/>
       <c r="N143" s="7"/>
-    </row>
-    <row r="144" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O143" s="7"/>
+    </row>
+    <row r="144" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A144" s="6" t="s">
         <v>159</v>
       </c>
@@ -8747,8 +9200,9 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
-    </row>
-    <row r="145" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O144" s="7"/>
+    </row>
+    <row r="145" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A145" s="6" t="s">
         <v>160</v>
       </c>
@@ -8765,8 +9219,9 @@
       <c r="L145" s="7"/>
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
-    </row>
-    <row r="146" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O145" s="7"/>
+    </row>
+    <row r="146" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A146" s="6" t="s">
         <v>161</v>
       </c>
@@ -8783,8 +9238,9 @@
       <c r="L146" s="7"/>
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
-    </row>
-    <row r="147" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O146" s="7"/>
+    </row>
+    <row r="147" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A147" s="6" t="s">
         <v>162</v>
       </c>
@@ -8801,8 +9257,9 @@
       <c r="L147" s="7"/>
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
-    </row>
-    <row r="148" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O147" s="7"/>
+    </row>
+    <row r="148" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A148" s="6" t="s">
         <v>163</v>
       </c>
@@ -8819,8 +9276,9 @@
       <c r="L148" s="7"/>
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
-    </row>
-    <row r="149" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O148" s="7"/>
+    </row>
+    <row r="149" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A149" s="6" t="s">
         <v>164</v>
       </c>
@@ -8837,8 +9295,9 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
       <c r="N149" s="7"/>
-    </row>
-    <row r="150" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O149" s="7"/>
+    </row>
+    <row r="150" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A150" s="6" t="s">
         <v>165</v>
       </c>
@@ -8855,8 +9314,9 @@
       <c r="L150" s="7"/>
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
-    </row>
-    <row r="151" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O150" s="7"/>
+    </row>
+    <row r="151" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A151" s="6" t="s">
         <v>166</v>
       </c>
@@ -8873,8 +9333,9 @@
       <c r="L151" s="7"/>
       <c r="M151" s="7"/>
       <c r="N151" s="7"/>
-    </row>
-    <row r="152" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O151" s="7"/>
+    </row>
+    <row r="152" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A152" s="6" t="s">
         <v>167</v>
       </c>
@@ -8891,8 +9352,9 @@
       <c r="L152" s="7"/>
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
-    </row>
-    <row r="153" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O152" s="7"/>
+    </row>
+    <row r="153" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A153" s="6" t="s">
         <v>168</v>
       </c>
@@ -8909,8 +9371,9 @@
       <c r="L153" s="7"/>
       <c r="M153" s="7"/>
       <c r="N153" s="7"/>
-    </row>
-    <row r="154" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O153" s="7"/>
+    </row>
+    <row r="154" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A154" s="6" t="s">
         <v>169</v>
       </c>
@@ -8927,8 +9390,9 @@
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
-    </row>
-    <row r="155" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O154" s="7"/>
+    </row>
+    <row r="155" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A155" s="6" t="s">
         <v>170</v>
       </c>
@@ -8945,8 +9409,9 @@
       <c r="L155" s="7"/>
       <c r="M155" s="7"/>
       <c r="N155" s="7"/>
-    </row>
-    <row r="156" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O155" s="7"/>
+    </row>
+    <row r="156" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A156" s="6" t="s">
         <v>171</v>
       </c>
@@ -8963,8 +9428,9 @@
       <c r="L156" s="7"/>
       <c r="M156" s="7"/>
       <c r="N156" s="7"/>
-    </row>
-    <row r="157" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O156" s="7"/>
+    </row>
+    <row r="157" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A157" s="6" t="s">
         <v>172</v>
       </c>
@@ -8981,8 +9447,9 @@
       <c r="L157" s="7"/>
       <c r="M157" s="7"/>
       <c r="N157" s="7"/>
-    </row>
-    <row r="158" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="O157" s="7"/>
+    </row>
+    <row r="158" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A158" s="6" t="s">
         <v>173</v>
       </c>
@@ -8999,8 +9466,9 @@
       <c r="L158" s="7"/>
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O158" s="7"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A159" s="6" t="s">
         <v>174</v>
       </c>
@@ -9017,8 +9485,9 @@
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
       <c r="N159" s="7"/>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O159" s="7"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A160" s="6" t="s">
         <v>175</v>
       </c>
@@ -9035,20 +9504,22 @@
       <c r="L160" s="7"/>
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9056,20 +9527,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A597F0-72DC-4161-9466-8A9555AFB6FF}">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="81.31640625" customWidth="1"/>
-    <col min="14" max="14" width="8.86328125" customWidth="1"/>
+    <col min="15" max="15" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -9079,71 +9550,75 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:O3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
+        <f t="shared" ref="B3:P3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
         <v>0</v>
       </c>
       <c r="C3" s="3">
@@ -9152,7 +9627,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
@@ -9188,55 +9663,71 @@
       </c>
       <c r="M3" s="3">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N3" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
       <c r="O3" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>292</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>293</v>
       </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>295</v>
       </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -9244,401 +9735,401 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>297</v>
       </c>
       <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>298</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>300</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>301</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>303</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>304</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>305</v>
       </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>306</v>
       </c>
+      <c r="D19" t="s">
+        <v>594</v>
+      </c>
       <c r="L19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>307</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
       </c>
-      <c r="O20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>308</v>
       </c>
-      <c r="O21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>309</v>
       </c>
-      <c r="O22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>310</v>
       </c>
-      <c r="O23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>312</v>
       </c>
-      <c r="O24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>313</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>314</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>315</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>316</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>317</v>
       </c>
-      <c r="N29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>318</v>
       </c>
-      <c r="N30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>319</v>
       </c>
-      <c r="N31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>320</v>
       </c>
-      <c r="N32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>321</v>
       </c>
-      <c r="N33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>322</v>
       </c>
-      <c r="N34" t="s">
-        <v>19</v>
-      </c>
       <c r="O34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>323</v>
       </c>
-      <c r="O35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>324</v>
       </c>
-      <c r="O36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>325</v>
       </c>
-      <c r="O37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>326</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="O38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>327</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
-      <c r="O39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>328</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>331</v>
       </c>
-      <c r="N43" t="s">
-        <v>19</v>
-      </c>
       <c r="O43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>333</v>
       </c>
-      <c r="N45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>334</v>
       </c>
-      <c r="N46" t="s">
-        <v>19</v>
-      </c>
       <c r="O46" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>335</v>
       </c>
-      <c r="O47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>336</v>
       </c>
-      <c r="O48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>337</v>
       </c>
-      <c r="O49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>338</v>
       </c>
-      <c r="O50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>339</v>
       </c>
-      <c r="O51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>340</v>
       </c>
-      <c r="O52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>341</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>342</v>
       </c>
       <c r="I54" t="s">
         <v>19</v>
       </c>
-      <c r="O54" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>343</v>
       </c>
-      <c r="O55" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>345</v>
       </c>
@@ -9646,7 +10137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>346</v>
       </c>
@@ -9654,7 +10145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>347</v>
       </c>
@@ -9662,149 +10153,158 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>348</v>
       </c>
       <c r="I60" t="s">
         <v>19</v>
       </c>
-      <c r="O60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.75">
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>349</v>
       </c>
-      <c r="O61" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>351</v>
       </c>
-      <c r="N63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>352</v>
       </c>
-      <c r="N64" t="s">
-        <v>19</v>
-      </c>
       <c r="O64" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>354</v>
       </c>
-      <c r="N66" t="s">
-        <v>19</v>
-      </c>
       <c r="O66" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>355</v>
       </c>
-      <c r="O67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>359</v>
       </c>
-      <c r="M71" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>360</v>
       </c>
-      <c r="M72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>361</v>
       </c>
-      <c r="M73" t="s">
-        <v>19</v>
-      </c>
-      <c r="O73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N73" t="s">
+        <v>19</v>
+      </c>
+      <c r="P73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>362</v>
       </c>
-      <c r="O74" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="N75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A76" s="12" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A77" s="12" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A78" s="12" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A79" s="12" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A80" s="12" t="s">
         <v>368</v>
       </c>
@@ -9980,18 +10480,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10000,10 +10501,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1227C96-BF0F-4627-9104-2D04AF3A0602}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10013,8 +10514,8 @@
     <col min="3" max="3" width="11" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -10024,71 +10525,75 @@
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="21"/>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="21"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="N1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="24"/>
+    <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="20"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:O3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
+        <f t="shared" ref="B3:P3" si="0" xml:space="preserve"> COUNTA(B4:B124)</f>
         <v>2</v>
       </c>
       <c r="C3" s="3">
@@ -10117,7 +10622,7 @@
       </c>
       <c r="I3" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" si="0"/>
@@ -10137,30 +10642,34 @@
       </c>
       <c r="N3" s="3">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A4" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A5" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="O5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" s="9" t="s">
         <v>404</v>
       </c>
@@ -10168,23 +10677,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A7" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A8" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A9" s="9" t="s">
         <v>410</v>
       </c>
@@ -10192,15 +10701,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A10" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A11" s="9" t="s">
         <v>413</v>
       </c>
@@ -10208,7 +10717,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A12" s="9" t="s">
         <v>414</v>
       </c>
@@ -10216,7 +10725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A13" s="9" t="s">
         <v>415</v>
       </c>
@@ -10224,15 +10733,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A14" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="M14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A15" s="9" t="s">
         <v>417</v>
       </c>
@@ -10240,7 +10749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A16" s="11" t="s">
         <v>418</v>
       </c>
@@ -10367,18 +10876,19 @@
       <c r="C36"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/data/ManualAppAnalysis.xlsx
+++ b/assets/data/ManualAppAnalysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariakn\Research\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CDC523-C388-4002-9D41-88DA12FFA1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF57E49E-E7DD-41D0-B1FB-BF90BBD00D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" firstSheet="4" activeTab="5" xr2:uid="{71FE6187-40FD-4070-A10B-0AF6E064FFD1}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" firstSheet="5" activeTab="7" xr2:uid="{71FE6187-40FD-4070-A10B-0AF6E064FFD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Pinterest " sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="594">
   <si>
     <t>Activity</t>
   </si>
@@ -1826,9 +1826,6 @@
   </si>
   <si>
     <t>Transitive</t>
-  </si>
-  <si>
-    <t>ea</t>
   </si>
 </sst>
 </file>
@@ -2008,19 +2005,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2032,16 +2039,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2049,70 +2046,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -2439,9 +2373,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D23CE3-7AD5-41B5-AAA1-A04D294A246E}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -2458,80 +2393,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
@@ -2613,7 +2548,7 @@
         <v>19</v>
       </c>
       <c r="M5"/>
-      <c r="P5" s="28"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
@@ -3024,26 +2959,26 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="M4:M6 M8:M18">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula xml:space="preserve"> OR($D4="x",$P4="x", $Q4="x",$R4="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4 P6 P8:P18">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula xml:space="preserve"> OR($D4="x",$P4="x", $Q4="x",$R4="x")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3056,7 +2991,7 @@
   <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3066,80 +3001,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
@@ -3464,18 +3399,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3486,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06243214-C050-4CC6-A86F-AC8EB20C9167}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3497,80 +3432,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
@@ -3902,8 +3837,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection activeCell="N22" sqref="N22"/>
-      <selection pane="topRight" activeCell="O3" sqref="O3:P3"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3919,80 +3854,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
@@ -4598,18 +4533,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4621,8 +4556,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection activeCell="N22" sqref="N22"/>
-      <selection pane="topRight" activeCell="M10" sqref="M10"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4636,80 +4571,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.25" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
@@ -5111,18 +5046,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5133,7 +5068,7 @@
   <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:M41"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5145,80 +5080,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="10"/>
@@ -6492,18 +6427,18 @@
     <sortCondition ref="A4:A41"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6515,8 +6450,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A27" sqref="A27"/>
-      <selection pane="topRight" activeCell="L13" sqref="L13"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6534,80 +6469,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:16" customFormat="1" ht="30.25" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
@@ -6949,18 +6884,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6970,8 +6905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF5E6A2-FCC3-4732-A73B-2A24D2AAE5AD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6982,66 +6917,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="27" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
@@ -7055,7 +6990,7 @@
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A3" s="10"/>
@@ -7595,18 +7530,18 @@
     <sortCondition ref="A4:A21"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7619,7 +7554,8 @@
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N121" sqref="N121"/>
+      <selection activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7634,80 +7570,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
@@ -9508,18 +9444,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9529,8 +9465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A597F0-72DC-4161-9466-8A9555AFB6FF}">
   <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9540,80 +9476,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
@@ -9627,7 +9563,7 @@
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
@@ -9811,9 +9747,6 @@
       <c r="A19" t="s">
         <v>306</v>
       </c>
-      <c r="D19" t="s">
-        <v>594</v>
-      </c>
       <c r="L19" t="s">
         <v>19</v>
       </c>
@@ -10481,18 +10414,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10504,7 +10437,7 @@
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -10515,80 +10448,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="22"/>
+      <c r="M1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="20" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="20"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="26"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.75">
       <c r="A3" s="3"/>
@@ -10877,18 +10810,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
